--- a/raw-data/tsa_hospitalizations/Texas COVID-19 Hospitalizations by TSA.xlsx
+++ b/raw-data/tsa_hospitalizations/Texas COVID-19 Hospitalizations by TSA.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AF11B4FE-AD46-4691-90E1-8374B79369A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D43C7077-6564-4615-9AD1-753FCFE8056F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{5F9D01BC-07B1-49D3-9D7E-5EA37D92C1CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hospitalizations by TSA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -180,7 +180,7 @@
     <t>Statewide Total</t>
   </si>
   <si>
-    <t>COVID-19 Hospitalizations by Trauma Service Area (TSA), 4/8/2020 - 6/21/2020</t>
+    <t>COVID-19 Hospitalizations by Trauma Service Area (TSA), 4/8/2020 - 6/25/2020</t>
   </si>
 </sst>
 </file>
@@ -661,53 +661,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2839F65-C660-45EB-962B-F599CC4A72D5}">
-  <dimension ref="A1:BZ27"/>
+  <dimension ref="A1:CC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AV1" workbookViewId="0">
-      <selection activeCell="CA19" sqref="CA19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.3984375" customWidth="1"/>
     <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="4" width="3.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="18" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="27" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="40" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="43" max="46" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="47" max="48" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="53" max="55" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.6640625" customWidth="1"/>
-    <col min="57" max="57" width="6.46484375" customWidth="1"/>
-    <col min="58" max="78" width="4.6640625" customWidth="1"/>
+    <col min="3" max="81" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:81" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:78" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:81" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>46</v>
       </c>
@@ -942,8 +919,17 @@
       <c r="BZ3" s="5">
         <v>44004</v>
       </c>
+      <c r="CA3" s="5">
+        <v>44005</v>
+      </c>
+      <c r="CB3" s="5">
+        <v>44006</v>
+      </c>
+      <c r="CC3" s="5">
+        <v>44007</v>
+      </c>
     </row>
-    <row r="4" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1178,8 +1164,17 @@
       <c r="BZ4" s="12">
         <v>23</v>
       </c>
+      <c r="CA4" s="6">
+        <v>23</v>
+      </c>
+      <c r="CB4" s="6">
+        <v>27</v>
+      </c>
+      <c r="CC4" s="6">
+        <v>25</v>
+      </c>
     </row>
-    <row r="5" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
@@ -1414,8 +1409,17 @@
       <c r="BZ5" s="12">
         <v>22</v>
       </c>
+      <c r="CA5" s="6">
+        <v>25</v>
+      </c>
+      <c r="CB5" s="6">
+        <v>34</v>
+      </c>
+      <c r="CC5" s="6">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -1650,8 +1654,17 @@
       <c r="BZ6" s="12">
         <v>2</v>
       </c>
+      <c r="CA6" s="6">
+        <v>3</v>
+      </c>
+      <c r="CB6" s="6">
+        <v>7</v>
+      </c>
+      <c r="CC6" s="6">
+        <v>10</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -1886,8 +1899,17 @@
       <c r="BZ7" s="12">
         <v>2</v>
       </c>
+      <c r="CA7" s="6">
+        <v>5</v>
+      </c>
+      <c r="CB7" s="6">
+        <v>5</v>
+      </c>
+      <c r="CC7" s="6">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2122,8 +2144,17 @@
       <c r="BZ8" s="12">
         <v>988</v>
       </c>
+      <c r="CA8" s="6">
+        <v>1074</v>
+      </c>
+      <c r="CB8" s="6">
+        <v>1130</v>
+      </c>
+      <c r="CC8" s="6">
+        <v>1137</v>
+      </c>
     </row>
-    <row r="9" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -2358,8 +2389,17 @@
       <c r="BZ9" s="12">
         <v>22</v>
       </c>
+      <c r="CA9" s="6">
+        <v>25</v>
+      </c>
+      <c r="CB9" s="6">
+        <v>25</v>
+      </c>
+      <c r="CC9" s="6">
+        <v>33</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
@@ -2594,8 +2634,17 @@
       <c r="BZ10" s="12">
         <v>54</v>
       </c>
+      <c r="CA10" s="6">
+        <v>56</v>
+      </c>
+      <c r="CB10" s="6">
+        <v>62</v>
+      </c>
+      <c r="CC10" s="6">
+        <v>62</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2830,8 +2879,17 @@
       <c r="BZ11" s="12">
         <v>24</v>
       </c>
+      <c r="CA11" s="6">
+        <v>32</v>
+      </c>
+      <c r="CB11" s="6">
+        <v>32</v>
+      </c>
+      <c r="CC11" s="6">
+        <v>35</v>
+      </c>
     </row>
-    <row r="12" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
@@ -3066,8 +3124,17 @@
       <c r="BZ12" s="12">
         <v>110</v>
       </c>
+      <c r="CA12" s="6">
+        <v>116</v>
+      </c>
+      <c r="CB12" s="6">
+        <v>133</v>
+      </c>
+      <c r="CC12" s="6">
+        <v>130</v>
+      </c>
     </row>
-    <row r="13" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
@@ -3302,8 +3369,17 @@
       <c r="BZ13" s="12">
         <v>35</v>
       </c>
+      <c r="CA13" s="6">
+        <v>43</v>
+      </c>
+      <c r="CB13" s="6">
+        <v>39</v>
+      </c>
+      <c r="CC13" s="6">
+        <v>47</v>
+      </c>
     </row>
-    <row r="14" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
@@ -3538,8 +3614,17 @@
       <c r="BZ14" s="12">
         <v>6</v>
       </c>
+      <c r="CA14" s="6">
+        <v>7</v>
+      </c>
+      <c r="CB14" s="6">
+        <v>8</v>
+      </c>
+      <c r="CC14" s="6">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
@@ -3774,8 +3859,17 @@
       <c r="BZ15" s="12">
         <v>24</v>
       </c>
+      <c r="CA15" s="6">
+        <v>31</v>
+      </c>
+      <c r="CB15" s="6">
+        <v>33</v>
+      </c>
+      <c r="CC15" s="6">
+        <v>24</v>
+      </c>
     </row>
-    <row r="16" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -4010,8 +4104,17 @@
       <c r="BZ16" s="12">
         <v>7</v>
       </c>
+      <c r="CA16" s="6">
+        <v>12</v>
+      </c>
+      <c r="CB16" s="6">
+        <v>14</v>
+      </c>
+      <c r="CC16" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>25</v>
       </c>
@@ -4246,8 +4349,17 @@
       <c r="BZ17" s="12">
         <v>44</v>
       </c>
+      <c r="CA17" s="6">
+        <v>51</v>
+      </c>
+      <c r="CB17" s="6">
+        <v>46</v>
+      </c>
+      <c r="CC17" s="6">
+        <v>47</v>
+      </c>
     </row>
-    <row r="18" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>27</v>
       </c>
@@ -4482,8 +4594,17 @@
       <c r="BZ18" s="12">
         <v>205</v>
       </c>
+      <c r="CA18" s="6">
+        <v>245</v>
+      </c>
+      <c r="CB18" s="6">
+        <v>274</v>
+      </c>
+      <c r="CC18" s="6">
+        <v>288</v>
+      </c>
     </row>
-    <row r="19" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
@@ -4718,8 +4839,17 @@
       <c r="BZ19" s="12">
         <v>473</v>
       </c>
+      <c r="CA19" s="6">
+        <v>501</v>
+      </c>
+      <c r="CB19" s="6">
+        <v>549</v>
+      </c>
+      <c r="CC19" s="6">
+        <v>606</v>
+      </c>
     </row>
-    <row r="20" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
@@ -4954,8 +5084,17 @@
       <c r="BZ20" s="12">
         <v>1185</v>
       </c>
+      <c r="CA20" s="6">
+        <v>1293</v>
+      </c>
+      <c r="CB20" s="6">
+        <v>1343</v>
+      </c>
+      <c r="CC20" s="6">
+        <v>1496</v>
+      </c>
     </row>
-    <row r="21" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
@@ -5190,8 +5329,17 @@
       <c r="BZ21" s="12">
         <v>166</v>
       </c>
+      <c r="CA21" s="6">
+        <v>194</v>
+      </c>
+      <c r="CB21" s="6">
+        <v>223</v>
+      </c>
+      <c r="CC21" s="6">
+        <v>230</v>
+      </c>
     </row>
-    <row r="22" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
@@ -5426,8 +5574,17 @@
       <c r="BZ22" s="12">
         <v>20</v>
       </c>
+      <c r="CA22" s="6">
+        <v>18</v>
+      </c>
+      <c r="CB22" s="6">
+        <v>30</v>
+      </c>
+      <c r="CC22" s="6">
+        <v>31</v>
+      </c>
     </row>
-    <row r="23" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
@@ -5662,8 +5819,17 @@
       <c r="BZ23" s="12">
         <v>15</v>
       </c>
+      <c r="CA23" s="6">
+        <v>20</v>
+      </c>
+      <c r="CB23" s="6">
+        <v>24</v>
+      </c>
+      <c r="CC23" s="6">
+        <v>33</v>
+      </c>
     </row>
-    <row r="24" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>39</v>
       </c>
@@ -5898,8 +6064,17 @@
       <c r="BZ24" s="12">
         <v>31</v>
       </c>
+      <c r="CA24" s="6">
+        <v>38</v>
+      </c>
+      <c r="CB24" s="6">
+        <v>39</v>
+      </c>
+      <c r="CC24" s="6">
+        <v>38</v>
+      </c>
     </row>
-    <row r="25" spans="1:78" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:81" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>41</v>
       </c>
@@ -6134,8 +6309,17 @@
       <c r="BZ25" s="12">
         <v>253</v>
       </c>
+      <c r="CA25" s="6">
+        <v>280</v>
+      </c>
+      <c r="CB25" s="6">
+        <v>312</v>
+      </c>
+      <c r="CC25" s="6">
+        <v>398</v>
+      </c>
     </row>
-    <row r="26" spans="1:78" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:81" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
         <v>47</v>
@@ -6368,8 +6552,33 @@
       <c r="BZ26" s="9">
         <v>3711</v>
       </c>
+      <c r="CA26" s="9">
+        <v>4092</v>
+      </c>
+      <c r="CB26" s="9">
+        <v>4389</v>
+      </c>
+      <c r="CC26" s="9">
+        <v>4739</v>
+      </c>
     </row>
-    <row r="27" spans="1:78" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:81" x14ac:dyDescent="0.3">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
@@ -6430,6 +6639,9 @@
       <c r="BX27" s="11"/>
       <c r="BY27" s="11"/>
       <c r="BZ27" s="11"/>
+      <c r="CA27" s="11"/>
+      <c r="CB27" s="11"/>
+      <c r="CC27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
